--- a/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 0,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 1,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 2,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 1,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 1,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,36; 26,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,27; 118,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,48; 234,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,84; 268,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,81; 503,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,05; 314,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,8; 70,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,93; 152,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,75; 169,8</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 0,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 0,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,87; 164,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,25; 240,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,63; 90,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,43; 183,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,37; 111,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,77; 53,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,5; 113,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 110,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,95; 34,34</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 0,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 0,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 1,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 0,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,91%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-81,13; 426,11</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,25; 313,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,59; 220,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,85; 239,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,01; 136,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,04; 154,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,25; 131,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,23; 82,36</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 0,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 0,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,08%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,46; 56,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,3; 85,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,74; 41,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,48; 116,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; 95,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,18; 48,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 53,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,97; 62,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,84; 27,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,94</t>
+          <t>-1,18; 3,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,62</t>
+          <t>-0,3; 1,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,32</t>
+          <t>-0,33; 1,9</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>78,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>43,17%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,48; 234,56</t>
+          <t>-68,07; 398,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 314,02</t>
+          <t>-28,25; 331,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 169,8</t>
+          <t>-29,53; 236,64</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,44</t>
+          <t>-0,84; 0,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,33</t>
+          <t>-1,15; 0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,23</t>
+          <t>-0,84; 0,14</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,5%</t>
+          <t>-28,69%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,63; 90,68</t>
+          <t>-67,45; 84,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 53,47</t>
+          <t>-68,57; 44,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 34,34</t>
+          <t>-59,18; 20,97</t>
         </is>
       </c>
     </row>
@@ -1074,37 +1074,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>-0,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,76</t>
+          <t>-1,69; 0,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,95</t>
+          <t>-2,07; 0,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,56</t>
+          <t>-1,28; 0,53</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,32%</t>
+          <t>-31,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,52%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>-21,34%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,25; 313,27</t>
+          <t>-89,9; 299,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 136,38</t>
+          <t>-66,98; 134,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,23; 82,36</t>
+          <t>-64,17; 77,85</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,29</t>
+          <t>-0,81; 0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,43</t>
+          <t>-0,63; 0,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,24</t>
+          <t>-0,56; 0,24</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,9%</t>
+          <t>-24,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,08%</t>
+          <t>-14,94%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,74; 41,83</t>
+          <t>-58,51; 51,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 48,98</t>
+          <t>-42,88; 42,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 27,28</t>
+          <t>-41,55; 25,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,13</t>
+          <t>-2,05; 0,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,92</t>
+          <t>-1,7; 0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,8</t>
+          <t>-1,28; 3,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,27</t>
+          <t>-0,43; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,21</t>
+          <t>-0,25; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,71</t>
+          <t>-0,24; 1,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,52</t>
+          <t>-0,83; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,21</t>
+          <t>-0,55; 1,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,9</t>
+          <t>-0,3; 1,82</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-91,36; 26,32</t>
+          <t>-87,73; 32,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,27; 118,55</t>
+          <t>-80,82; 99,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 398,31</t>
+          <t>-71,05; 460,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 268,22</t>
+          <t>-39,05; 260,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 503,2</t>
+          <t>-31,2; 385,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 331,34</t>
+          <t>-22,26; 374,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 70,3</t>
+          <t>-53,47; 69,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 152,39</t>
+          <t>-41,62; 136,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 236,64</t>
+          <t>-24,51; 240,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,89</t>
+          <t>-0,56; 0,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,25</t>
+          <t>-0,29; 1,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,38</t>
+          <t>-0,87; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,28</t>
+          <t>-0,55; 1,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,79</t>
+          <t>-0,83; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,25</t>
+          <t>-1,13; 0,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,87</t>
+          <t>-0,28; 0,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,82</t>
+          <t>-0,32; 0,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,14</t>
+          <t>-0,81; 0,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 164,84</t>
+          <t>-48,68; 170,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 240,85</t>
+          <t>-28,61; 244,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 84,29</t>
+          <t>-67,25; 80,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 183,13</t>
+          <t>-34,27; 168,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 111,89</t>
+          <t>-50,33; 99,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,57; 44,36</t>
+          <t>-68,42; 35,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 113,69</t>
+          <t>-24,16; 110,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 110,03</t>
+          <t>-26,03; 101,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 20,97</t>
+          <t>-59,36; 18,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,68</t>
+          <t>-1,23; 1,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,9</t>
+          <t>-1,54; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,68</t>
+          <t>-1,65; 0,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,59</t>
+          <t>-1,8; 1,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,6</t>
+          <t>-1,81; 1,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,91</t>
+          <t>-2,06; 0,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,2</t>
+          <t>-1,02; 1,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,87</t>
+          <t>-1,12; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,53</t>
+          <t>-1,33; 0,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 426,11</t>
+          <t>-82,05; 543,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,85; 395,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,9; 299,62</t>
+          <t>-90,85; 235,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,59; 220,82</t>
+          <t>-74,64; 217,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,85; 239,55</t>
+          <t>-70,74; 220,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 134,29</t>
+          <t>-69,0; 132,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 154,79</t>
+          <t>-57,48; 159,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,25; 131,22</t>
+          <t>-62,73; 123,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 77,85</t>
+          <t>-62,47; 69,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,42</t>
+          <t>-0,72; 0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,71</t>
+          <t>-0,53; 0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,37</t>
+          <t>-0,81; 0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,95</t>
+          <t>-0,21; 0,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,82</t>
+          <t>-0,42; 0,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,38</t>
+          <t>-0,6; 0,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,48</t>
+          <t>-0,34; 0,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,56</t>
+          <t>-0,26; 0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 0,24</t>
+          <t>-0,51; 0,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 56,9</t>
+          <t>-51,1; 57,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 85,81</t>
+          <t>-38,17; 90,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 51,34</t>
+          <t>-59,22; 44,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 116,48</t>
+          <t>-16,2; 109,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 95,59</t>
+          <t>-28,97; 92,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 42,88</t>
+          <t>-41,14; 47,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 53,42</t>
+          <t>-24,98; 53,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 62,0</t>
+          <t>-20,49; 61,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 25,96</t>
+          <t>-38,55; 31,46</t>
         </is>
       </c>
     </row>
